--- a/Tipo_2_CM1.xlsx
+++ b/Tipo_2_CM1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FlutterApps\dasho2\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44272BC-5F95-4BAF-BD46-8965C9EFEA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1384D1-73A1-46B9-A240-9EBD2F7B0B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="690" xr2:uid="{659C689A-1CB2-447E-9636-51EC9D269BAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="690" activeTab="5" xr2:uid="{659C689A-1CB2-447E-9636-51EC9D269BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="8" r:id="rId1"/>
@@ -1730,7 +1730,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4902,7 +4902,7 @@
   </sheetPr>
   <dimension ref="A1:H272"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A237" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H272"/>
     </sheetView>
   </sheetViews>
@@ -5448,7 +5448,7 @@
         <v>102</v>
       </c>
       <c r="D21">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
         <v>75</v>
@@ -5460,7 +5460,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H21">
-        <v>7.26</v>
+        <v>12.100000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5474,7 +5474,7 @@
         <v>127</v>
       </c>
       <c r="D22">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="E22" t="s">
         <v>83</v>
@@ -5500,7 +5500,7 @@
         <v>82</v>
       </c>
       <c r="D23">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E23" t="s">
         <v>83</v>
@@ -5526,7 +5526,7 @@
         <v>146</v>
       </c>
       <c r="D24">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="E24" t="s">
         <v>143</v>
@@ -5538,7 +5538,7 @@
         <v>6</v>
       </c>
       <c r="H24">
-        <v>28.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -5552,7 +5552,7 @@
         <v>110</v>
       </c>
       <c r="D25">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
@@ -5564,7 +5564,7 @@
         <v>11</v>
       </c>
       <c r="H25">
-        <v>0.88</v>
+        <v>1.3199999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -5578,7 +5578,7 @@
         <v>102</v>
       </c>
       <c r="D26">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="E26" t="s">
         <v>75</v>
@@ -5590,7 +5590,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H26">
-        <v>146.30000000000001</v>
+        <v>231.00000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -5604,7 +5604,7 @@
         <v>74</v>
       </c>
       <c r="D27">
-        <v>0.38</v>
+        <v>0.6</v>
       </c>
       <c r="E27" t="s">
         <v>75</v>
@@ -5616,7 +5616,7 @@
         <v>11</v>
       </c>
       <c r="H27">
-        <v>4.18</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -5630,7 +5630,7 @@
         <v>123</v>
       </c>
       <c r="D28">
-        <v>16.440000000000001</v>
+        <v>25.95</v>
       </c>
       <c r="E28" t="s">
         <v>75</v>
@@ -5642,7 +5642,7 @@
         <v>9</v>
       </c>
       <c r="H28">
-        <v>147.96</v>
+        <v>233.54999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -5656,7 +5656,7 @@
         <v>127</v>
       </c>
       <c r="D29">
-        <v>0.34</v>
+        <v>0.54</v>
       </c>
       <c r="E29" t="s">
         <v>83</v>
@@ -5682,7 +5682,7 @@
         <v>82</v>
       </c>
       <c r="D30">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="E30" t="s">
         <v>83</v>
@@ -5708,7 +5708,7 @@
         <v>74</v>
       </c>
       <c r="D31">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="E31" t="s">
         <v>75</v>
@@ -5720,7 +5720,7 @@
         <v>11</v>
       </c>
       <c r="H31">
-        <v>11.440000000000001</v>
+        <v>11.66</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -5734,7 +5734,7 @@
         <v>146</v>
       </c>
       <c r="D32">
-        <v>17.940000000000001</v>
+        <v>18.29</v>
       </c>
       <c r="E32" t="s">
         <v>143</v>
@@ -5746,7 +5746,7 @@
         <v>6</v>
       </c>
       <c r="H32">
-        <v>107.64000000000001</v>
+        <v>109.74</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -5760,7 +5760,7 @@
         <v>124</v>
       </c>
       <c r="D33">
-        <v>11.32</v>
+        <v>11.53</v>
       </c>
       <c r="E33" t="s">
         <v>75</v>
@@ -5772,7 +5772,7 @@
         <v>9</v>
       </c>
       <c r="H33">
-        <v>101.88</v>
+        <v>103.77</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -5786,7 +5786,7 @@
         <v>123</v>
       </c>
       <c r="D34">
-        <v>33.08</v>
+        <v>33.71</v>
       </c>
       <c r="E34" t="s">
         <v>75</v>
@@ -5798,7 +5798,7 @@
         <v>9</v>
       </c>
       <c r="H34">
-        <v>297.71999999999997</v>
+        <v>303.39</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -5812,7 +5812,7 @@
         <v>110</v>
       </c>
       <c r="D35">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="E35" t="s">
         <v>75</v>
@@ -5824,7 +5824,7 @@
         <v>11</v>
       </c>
       <c r="H35">
-        <v>10.34</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -5838,7 +5838,7 @@
         <v>102</v>
       </c>
       <c r="D36">
-        <v>182</v>
+        <v>185.5</v>
       </c>
       <c r="E36" t="s">
         <v>75</v>
@@ -5850,7 +5850,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H36">
-        <v>200.20000000000002</v>
+        <v>204.05</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -5864,7 +5864,7 @@
         <v>127</v>
       </c>
       <c r="D37">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="E37" t="s">
         <v>83</v>
@@ -6254,7 +6254,7 @@
         <v>136</v>
       </c>
       <c r="D52">
-        <v>2901.6</v>
+        <v>2925.12</v>
       </c>
       <c r="E52" t="s">
         <v>35</v>
@@ -6266,7 +6266,7 @@
         <v>1.2</v>
       </c>
       <c r="H52">
-        <v>3481.9199999999996</v>
+        <v>3510.1439999999998</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -6280,7 +6280,7 @@
         <v>102</v>
       </c>
       <c r="D53">
-        <v>1004.68</v>
+        <v>1012.82</v>
       </c>
       <c r="E53" t="s">
         <v>75</v>
@@ -6292,7 +6292,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H53">
-        <v>1105.1480000000001</v>
+        <v>1114.1020000000001</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -6306,7 +6306,7 @@
         <v>84</v>
       </c>
       <c r="D54">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="E54" t="s">
         <v>83</v>
@@ -6540,7 +6540,7 @@
         <v>111</v>
       </c>
       <c r="D63">
-        <v>6.77</v>
+        <v>6.67</v>
       </c>
       <c r="E63" t="s">
         <v>75</v>
@@ -6552,7 +6552,7 @@
         <v>15</v>
       </c>
       <c r="H63">
-        <v>101.55</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -6566,7 +6566,7 @@
         <v>110</v>
       </c>
       <c r="D64">
-        <v>6.77</v>
+        <v>6.67</v>
       </c>
       <c r="E64" t="s">
         <v>75</v>
@@ -6578,7 +6578,7 @@
         <v>11</v>
       </c>
       <c r="H64">
-        <v>74.47</v>
+        <v>73.37</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -6592,7 +6592,7 @@
         <v>147</v>
       </c>
       <c r="D65">
-        <v>244.36</v>
+        <v>240.68</v>
       </c>
       <c r="E65" t="s">
         <v>143</v>
@@ -6604,7 +6604,7 @@
         <v>6</v>
       </c>
       <c r="H65">
-        <v>1466.16</v>
+        <v>1444.08</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -6618,7 +6618,7 @@
         <v>142</v>
       </c>
       <c r="D66">
-        <v>81.900000000000006</v>
+        <v>80.67</v>
       </c>
       <c r="E66" t="s">
         <v>143</v>
@@ -6630,7 +6630,7 @@
         <v>2</v>
       </c>
       <c r="H66">
-        <v>163.80000000000001</v>
+        <v>161.34</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -6644,7 +6644,7 @@
         <v>96</v>
       </c>
       <c r="D67">
-        <v>75.81</v>
+        <v>74.67</v>
       </c>
       <c r="E67" t="s">
         <v>20</v>
@@ -6656,7 +6656,7 @@
         <v>45</v>
       </c>
       <c r="H67">
-        <v>3411.4500000000003</v>
+        <v>3360.15</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -6670,7 +6670,7 @@
         <v>146</v>
       </c>
       <c r="D68">
-        <v>26.19</v>
+        <v>24.3</v>
       </c>
       <c r="E68" t="s">
         <v>143</v>
@@ -6682,7 +6682,7 @@
         <v>6</v>
       </c>
       <c r="H68">
-        <v>157.14000000000001</v>
+        <v>145.80000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -6696,7 +6696,7 @@
         <v>110</v>
       </c>
       <c r="D69">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="E69" t="s">
         <v>75</v>
@@ -6708,7 +6708,7 @@
         <v>11</v>
       </c>
       <c r="H69">
-        <v>21.34</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -6722,7 +6722,7 @@
         <v>74</v>
       </c>
       <c r="D70">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="E70" t="s">
         <v>75</v>
@@ -6734,7 +6734,7 @@
         <v>11</v>
       </c>
       <c r="H70">
-        <v>21.34</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -6748,7 +6748,7 @@
         <v>102</v>
       </c>
       <c r="D71">
-        <v>339.5</v>
+        <v>315</v>
       </c>
       <c r="E71" t="s">
         <v>75</v>
@@ -6760,7 +6760,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H71">
-        <v>373.45000000000005</v>
+        <v>346.5</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -6774,7 +6774,7 @@
         <v>125</v>
       </c>
       <c r="D72">
-        <v>75.38</v>
+        <v>69.94</v>
       </c>
       <c r="E72" t="s">
         <v>75</v>
@@ -6786,7 +6786,7 @@
         <v>8.5</v>
       </c>
       <c r="H72">
-        <v>640.73</v>
+        <v>594.49</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -6800,7 +6800,7 @@
         <v>127</v>
       </c>
       <c r="D73">
-        <v>0.87</v>
+        <v>0.81</v>
       </c>
       <c r="E73" t="s">
         <v>83</v>
@@ -6826,7 +6826,7 @@
         <v>82</v>
       </c>
       <c r="D74">
-        <v>0.56999999999999995</v>
+        <v>0.53</v>
       </c>
       <c r="E74" t="s">
         <v>83</v>
@@ -7086,7 +7086,7 @@
         <v>190</v>
       </c>
       <c r="D84">
-        <v>91.77</v>
+        <v>90.8</v>
       </c>
       <c r="E84" t="s">
         <v>75</v>
@@ -7098,7 +7098,7 @@
         <v>0.7</v>
       </c>
       <c r="H84">
-        <v>64.23899999999999</v>
+        <v>63.559999999999995</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -7138,7 +7138,7 @@
         <v>102</v>
       </c>
       <c r="D86">
-        <v>309.42</v>
+        <v>306.36</v>
       </c>
       <c r="E86" t="s">
         <v>75</v>
@@ -7150,7 +7150,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H86">
-        <v>340.36200000000002</v>
+        <v>336.99600000000004</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -7164,7 +7164,7 @@
         <v>84</v>
       </c>
       <c r="D87">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E87" t="s">
         <v>83</v>
@@ -7294,7 +7294,7 @@
         <v>102</v>
       </c>
       <c r="D92">
-        <v>463.43</v>
+        <v>532.71</v>
       </c>
       <c r="E92" t="s">
         <v>75</v>
@@ -7306,7 +7306,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H92">
-        <v>509.77300000000002</v>
+        <v>585.98100000000011</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -7320,7 +7320,7 @@
         <v>159</v>
       </c>
       <c r="D93">
-        <v>2.5099999999999998</v>
+        <v>2.88</v>
       </c>
       <c r="E93" t="s">
         <v>20</v>
@@ -7332,7 +7332,7 @@
         <v>15</v>
       </c>
       <c r="H93">
-        <v>37.65</v>
+        <v>43.199999999999996</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -7346,7 +7346,7 @@
         <v>155</v>
       </c>
       <c r="D94">
-        <v>3.01</v>
+        <v>3.46</v>
       </c>
       <c r="E94" t="s">
         <v>83</v>
@@ -7372,7 +7372,7 @@
         <v>84</v>
       </c>
       <c r="D95">
-        <v>0.5</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E95" t="s">
         <v>83</v>
@@ -7398,7 +7398,7 @@
         <v>127</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E96" t="s">
         <v>83</v>
@@ -7424,7 +7424,7 @@
         <v>82</v>
       </c>
       <c r="D97">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="E97" t="s">
         <v>83</v>
@@ -7450,7 +7450,7 @@
         <v>102</v>
       </c>
       <c r="D98">
-        <v>1018.44</v>
+        <v>1018.26</v>
       </c>
       <c r="E98" t="s">
         <v>75</v>
@@ -7462,7 +7462,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H98">
-        <v>1120.2840000000001</v>
+        <v>1120.086</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -7502,7 +7502,7 @@
         <v>137</v>
       </c>
       <c r="D100">
-        <v>139.19999999999999</v>
+        <v>144</v>
       </c>
       <c r="E100" t="s">
         <v>35</v>
@@ -7514,7 +7514,7 @@
         <v>0.8</v>
       </c>
       <c r="H100">
-        <v>111.36</v>
+        <v>115.2</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -7528,7 +7528,7 @@
         <v>102</v>
       </c>
       <c r="D101">
-        <v>34.450000000000003</v>
+        <v>35.64</v>
       </c>
       <c r="E101" t="s">
         <v>75</v>
@@ -7540,7 +7540,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H101">
-        <v>37.895000000000003</v>
+        <v>39.204000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -7580,7 +7580,7 @@
         <v>146</v>
       </c>
       <c r="D103">
-        <v>13.02</v>
+        <v>12.18</v>
       </c>
       <c r="E103" t="s">
         <v>143</v>
@@ -7592,7 +7592,7 @@
         <v>6</v>
       </c>
       <c r="H103">
-        <v>78.12</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -7606,7 +7606,7 @@
         <v>110</v>
       </c>
       <c r="D104">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="E104" t="s">
         <v>75</v>
@@ -7618,7 +7618,7 @@
         <v>11</v>
       </c>
       <c r="H104">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -7632,7 +7632,7 @@
         <v>74</v>
       </c>
       <c r="D105">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="E105" t="s">
         <v>75</v>
@@ -7644,7 +7644,7 @@
         <v>11</v>
       </c>
       <c r="H105">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -7658,7 +7658,7 @@
         <v>126</v>
       </c>
       <c r="D106">
-        <v>13.37</v>
+        <v>12.51</v>
       </c>
       <c r="E106" t="s">
         <v>75</v>
@@ -7670,7 +7670,7 @@
         <v>8</v>
       </c>
       <c r="H106">
-        <v>106.96</v>
+        <v>100.08</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -7684,7 +7684,7 @@
         <v>102</v>
       </c>
       <c r="D107">
-        <v>32.549999999999997</v>
+        <v>30.45</v>
       </c>
       <c r="E107" t="s">
         <v>75</v>
@@ -7696,7 +7696,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H107">
-        <v>35.805</v>
+        <v>33.495000000000005</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -7736,7 +7736,7 @@
         <v>82</v>
       </c>
       <c r="D109">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E109" t="s">
         <v>83</v>
@@ -10024,7 +10024,7 @@
         <v>103</v>
       </c>
       <c r="D197">
-        <v>56.21</v>
+        <v>56.19</v>
       </c>
       <c r="E197" t="s">
         <v>16</v>
@@ -10036,7 +10036,7 @@
         <v>31</v>
       </c>
       <c r="H197">
-        <v>1742.51</v>
+        <v>1741.8899999999999</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -10050,7 +10050,7 @@
         <v>101</v>
       </c>
       <c r="D198">
-        <v>294.42</v>
+        <v>294.31</v>
       </c>
       <c r="E198" t="s">
         <v>75</v>
@@ -10062,7 +10062,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H198">
-        <v>323.86200000000002</v>
+        <v>323.74100000000004</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -10076,7 +10076,7 @@
         <v>100</v>
       </c>
       <c r="D199">
-        <v>16.059999999999999</v>
+        <v>16.05</v>
       </c>
       <c r="E199" t="s">
         <v>75</v>
@@ -10088,7 +10088,7 @@
         <v>8</v>
       </c>
       <c r="H199">
-        <v>128.47999999999999</v>
+        <v>128.4</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -10102,7 +10102,7 @@
         <v>103</v>
       </c>
       <c r="D200">
-        <v>21.83</v>
+        <v>12.45</v>
       </c>
       <c r="E200" t="s">
         <v>16</v>
@@ -10114,7 +10114,7 @@
         <v>31</v>
       </c>
       <c r="H200">
-        <v>676.7299999999999</v>
+        <v>385.95</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -10128,7 +10128,7 @@
         <v>101</v>
       </c>
       <c r="D201">
-        <v>114.35</v>
+        <v>65.23</v>
       </c>
       <c r="E201" t="s">
         <v>75</v>
@@ -10140,7 +10140,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H201">
-        <v>125.78500000000001</v>
+        <v>71.753000000000014</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -10154,7 +10154,7 @@
         <v>100</v>
       </c>
       <c r="D202">
-        <v>6.03</v>
+        <v>3.44</v>
       </c>
       <c r="E202" t="s">
         <v>75</v>
@@ -10166,7 +10166,7 @@
         <v>8</v>
       </c>
       <c r="H202">
-        <v>48.24</v>
+        <v>27.52</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -10180,7 +10180,7 @@
         <v>104</v>
       </c>
       <c r="D203">
-        <v>3.44</v>
+        <v>2.71</v>
       </c>
       <c r="E203" t="s">
         <v>20</v>
@@ -10192,7 +10192,7 @@
         <v>47</v>
       </c>
       <c r="H203">
-        <v>161.68</v>
+        <v>127.37</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -10206,7 +10206,7 @@
         <v>122</v>
       </c>
       <c r="D204">
-        <v>5.01</v>
+        <v>3.94</v>
       </c>
       <c r="E204" t="s">
         <v>24</v>
@@ -10218,7 +10218,7 @@
         <v>7</v>
       </c>
       <c r="H204">
-        <v>35.07</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -10232,7 +10232,7 @@
         <v>101</v>
       </c>
       <c r="D205">
-        <v>20.47</v>
+        <v>16.09</v>
       </c>
       <c r="E205" t="s">
         <v>75</v>
@@ -10244,7 +10244,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H205">
-        <v>22.516999999999999</v>
+        <v>17.699000000000002</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -10258,7 +10258,7 @@
         <v>100</v>
       </c>
       <c r="D206">
-        <v>4.4400000000000004</v>
+        <v>3.49</v>
       </c>
       <c r="E206" t="s">
         <v>75</v>
@@ -10270,7 +10270,7 @@
         <v>8</v>
       </c>
       <c r="H206">
-        <v>35.520000000000003</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -10284,7 +10284,7 @@
         <v>103</v>
       </c>
       <c r="D207">
-        <v>4.28</v>
+        <v>4.3</v>
       </c>
       <c r="E207" t="s">
         <v>16</v>
@@ -10296,7 +10296,7 @@
         <v>31</v>
       </c>
       <c r="H207">
-        <v>132.68</v>
+        <v>133.29999999999998</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -10310,7 +10310,7 @@
         <v>101</v>
       </c>
       <c r="D208">
-        <v>29.99</v>
+        <v>30.13</v>
       </c>
       <c r="E208" t="s">
         <v>75</v>
@@ -10322,7 +10322,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H208">
-        <v>32.989000000000004</v>
+        <v>33.143000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -10804,7 +10804,7 @@
         <v>165</v>
       </c>
       <c r="D227">
-        <v>11.52</v>
+        <v>11.53</v>
       </c>
       <c r="E227" t="s">
         <v>86</v>
@@ -10816,7 +10816,7 @@
         <v>20</v>
       </c>
       <c r="H227">
-        <v>230.39999999999998</v>
+        <v>230.6</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -10830,7 +10830,7 @@
         <v>157</v>
       </c>
       <c r="D228">
-        <v>33.4</v>
+        <v>33.44</v>
       </c>
       <c r="E228" t="s">
         <v>86</v>
@@ -10842,7 +10842,7 @@
         <v>22</v>
       </c>
       <c r="H228">
-        <v>734.8</v>
+        <v>735.68</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -10856,7 +10856,7 @@
         <v>149</v>
       </c>
       <c r="D229">
-        <v>28.79</v>
+        <v>28.83</v>
       </c>
       <c r="E229" t="s">
         <v>86</v>
@@ -10868,7 +10868,7 @@
         <v>20</v>
       </c>
       <c r="H229">
-        <v>575.79999999999995</v>
+        <v>576.59999999999991</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -10882,7 +10882,7 @@
         <v>141</v>
       </c>
       <c r="D230">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="E230" t="s">
         <v>24</v>
@@ -10894,7 +10894,7 @@
         <v>6</v>
       </c>
       <c r="H230">
-        <v>48.36</v>
+        <v>48.42</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -11038,7 +11038,7 @@
         <v>157</v>
       </c>
       <c r="D236">
-        <v>32.79</v>
+        <v>32.81</v>
       </c>
       <c r="E236" t="s">
         <v>86</v>
@@ -11050,7 +11050,7 @@
         <v>22</v>
       </c>
       <c r="H236">
-        <v>721.38</v>
+        <v>721.82</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -11064,7 +11064,7 @@
         <v>148</v>
       </c>
       <c r="D237">
-        <v>37.32</v>
+        <v>37.340000000000003</v>
       </c>
       <c r="E237" t="s">
         <v>86</v>
@@ -11076,7 +11076,7 @@
         <v>25</v>
       </c>
       <c r="H237">
-        <v>933</v>
+        <v>933.50000000000011</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -11090,7 +11090,7 @@
         <v>108</v>
       </c>
       <c r="D238">
-        <v>53.14</v>
+        <v>53.33</v>
       </c>
       <c r="E238" t="s">
         <v>16</v>
@@ -11102,7 +11102,7 @@
         <v>112</v>
       </c>
       <c r="H238">
-        <v>5951.68</v>
+        <v>5972.96</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -12003,8 +12003,8 @@
   </sheetPr>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12158,7 +12158,7 @@
         <v>194</v>
       </c>
       <c r="D6">
-        <v>30.14</v>
+        <v>46.24</v>
       </c>
       <c r="E6" t="s">
         <v>192</v>
@@ -12184,7 +12184,7 @@
         <v>191</v>
       </c>
       <c r="D7">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="E7" t="s">
         <v>192</v>
@@ -12196,7 +12196,7 @@
         <v>18</v>
       </c>
       <c r="H7">
-        <v>2.16</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -12210,7 +12210,7 @@
         <v>194</v>
       </c>
       <c r="D8">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="E8" t="s">
         <v>192</v>
@@ -12236,7 +12236,7 @@
         <v>197</v>
       </c>
       <c r="D9">
-        <v>3.04</v>
+        <v>4.8</v>
       </c>
       <c r="E9" t="s">
         <v>192</v>
@@ -12248,7 +12248,7 @@
         <v>18</v>
       </c>
       <c r="H9">
-        <v>54.72</v>
+        <v>86.399999999999991</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -12262,7 +12262,7 @@
         <v>193</v>
       </c>
       <c r="D10">
-        <v>3.04</v>
+        <v>4.8</v>
       </c>
       <c r="E10" t="s">
         <v>192</v>
@@ -12274,7 +12274,7 @@
         <v>18</v>
       </c>
       <c r="H10">
-        <v>54.72</v>
+        <v>86.399999999999991</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -12288,7 +12288,7 @@
         <v>191</v>
       </c>
       <c r="D11">
-        <v>4.5599999999999996</v>
+        <v>7.2</v>
       </c>
       <c r="E11" t="s">
         <v>192</v>
@@ -12300,7 +12300,7 @@
         <v>18</v>
       </c>
       <c r="H11">
-        <v>82.08</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -12314,7 +12314,7 @@
         <v>194</v>
       </c>
       <c r="D12">
-        <v>3.04</v>
+        <v>4.8</v>
       </c>
       <c r="E12" t="s">
         <v>192</v>
@@ -12340,7 +12340,7 @@
         <v>194</v>
       </c>
       <c r="D13">
-        <v>1.1299999999999999</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E13" t="s">
         <v>192</v>
@@ -12366,7 +12366,7 @@
         <v>197</v>
       </c>
       <c r="D14">
-        <v>4.16</v>
+        <v>4.24</v>
       </c>
       <c r="E14" t="s">
         <v>192</v>
@@ -12378,7 +12378,7 @@
         <v>18</v>
       </c>
       <c r="H14">
-        <v>74.88</v>
+        <v>76.320000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -12392,7 +12392,7 @@
         <v>193</v>
       </c>
       <c r="D15">
-        <v>4.16</v>
+        <v>4.24</v>
       </c>
       <c r="E15" t="s">
         <v>192</v>
@@ -12404,7 +12404,7 @@
         <v>18</v>
       </c>
       <c r="H15">
-        <v>74.88</v>
+        <v>76.320000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -12418,7 +12418,7 @@
         <v>191</v>
       </c>
       <c r="D16">
-        <v>4.16</v>
+        <v>4.24</v>
       </c>
       <c r="E16" t="s">
         <v>192</v>
@@ -12430,7 +12430,7 @@
         <v>18</v>
       </c>
       <c r="H16">
-        <v>74.88</v>
+        <v>76.320000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -12444,7 +12444,7 @@
         <v>194</v>
       </c>
       <c r="D17">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="E17" t="s">
         <v>192</v>
@@ -12626,7 +12626,7 @@
         <v>191</v>
       </c>
       <c r="D24">
-        <v>151.13</v>
+        <v>152.35</v>
       </c>
       <c r="E24" t="s">
         <v>192</v>
@@ -12638,7 +12638,7 @@
         <v>18</v>
       </c>
       <c r="H24">
-        <v>2720.34</v>
+        <v>2742.2999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -12652,7 +12652,7 @@
         <v>194</v>
       </c>
       <c r="D25">
-        <v>181.35</v>
+        <v>182.82</v>
       </c>
       <c r="E25" t="s">
         <v>192</v>
@@ -12782,7 +12782,7 @@
         <v>191</v>
       </c>
       <c r="D30">
-        <v>155.69</v>
+        <v>153.34</v>
       </c>
       <c r="E30" t="s">
         <v>192</v>
@@ -12794,7 +12794,7 @@
         <v>18</v>
       </c>
       <c r="H30">
-        <v>2802.42</v>
+        <v>2760.12</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -12808,7 +12808,7 @@
         <v>194</v>
       </c>
       <c r="D31">
-        <v>189.53</v>
+        <v>186.68</v>
       </c>
       <c r="E31" t="s">
         <v>192</v>
@@ -12834,7 +12834,7 @@
         <v>197</v>
       </c>
       <c r="D32">
-        <v>8.73</v>
+        <v>8.1</v>
       </c>
       <c r="E32" t="s">
         <v>192</v>
@@ -12846,7 +12846,7 @@
         <v>18</v>
       </c>
       <c r="H32">
-        <v>157.14000000000001</v>
+        <v>145.79999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -12860,7 +12860,7 @@
         <v>193</v>
       </c>
       <c r="D33">
-        <v>7.76</v>
+        <v>7.2</v>
       </c>
       <c r="E33" t="s">
         <v>192</v>
@@ -12872,7 +12872,7 @@
         <v>18</v>
       </c>
       <c r="H33">
-        <v>139.68</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -12886,7 +12886,7 @@
         <v>191</v>
       </c>
       <c r="D34">
-        <v>8.73</v>
+        <v>8.1</v>
       </c>
       <c r="E34" t="s">
         <v>192</v>
@@ -12898,7 +12898,7 @@
         <v>18</v>
       </c>
       <c r="H34">
-        <v>157.14000000000001</v>
+        <v>145.79999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -12912,7 +12912,7 @@
         <v>194</v>
       </c>
       <c r="D35">
-        <v>9.6999999999999993</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
         <v>192</v>
@@ -13094,7 +13094,7 @@
         <v>191</v>
       </c>
       <c r="D42">
-        <v>8.5500000000000007</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="E42" t="s">
         <v>192</v>
@@ -13106,7 +13106,7 @@
         <v>18</v>
       </c>
       <c r="H42">
-        <v>153.9</v>
+        <v>152.28000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -13120,7 +13120,7 @@
         <v>194</v>
       </c>
       <c r="D43">
-        <v>8.5500000000000007</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="E43" t="s">
         <v>192</v>
@@ -13198,7 +13198,7 @@
         <v>191</v>
       </c>
       <c r="D46">
-        <v>41.26</v>
+        <v>40.85</v>
       </c>
       <c r="E46" t="s">
         <v>192</v>
@@ -13210,7 +13210,7 @@
         <v>18</v>
       </c>
       <c r="H46">
-        <v>742.68</v>
+        <v>735.30000000000007</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -13224,7 +13224,7 @@
         <v>194</v>
       </c>
       <c r="D47">
-        <v>41.26</v>
+        <v>40.85</v>
       </c>
       <c r="E47" t="s">
         <v>192</v>
@@ -13302,7 +13302,7 @@
         <v>191</v>
       </c>
       <c r="D50">
-        <v>50.1</v>
+        <v>57.59</v>
       </c>
       <c r="E50" t="s">
         <v>192</v>
@@ -13314,7 +13314,7 @@
         <v>18</v>
       </c>
       <c r="H50">
-        <v>901.80000000000007</v>
+        <v>1036.6200000000001</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -13328,7 +13328,7 @@
         <v>194</v>
       </c>
       <c r="D51">
-        <v>50.1</v>
+        <v>57.59</v>
       </c>
       <c r="E51" t="s">
         <v>192</v>
@@ -13354,7 +13354,7 @@
         <v>191</v>
       </c>
       <c r="D52">
-        <v>169.74</v>
+        <v>169.71</v>
       </c>
       <c r="E52" t="s">
         <v>192</v>
@@ -13366,7 +13366,7 @@
         <v>18</v>
       </c>
       <c r="H52">
-        <v>3055.32</v>
+        <v>3054.78</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -13380,7 +13380,7 @@
         <v>194</v>
       </c>
       <c r="D53">
-        <v>169.74</v>
+        <v>169.71</v>
       </c>
       <c r="E53" t="s">
         <v>192</v>
@@ -13406,7 +13406,7 @@
         <v>191</v>
       </c>
       <c r="D54">
-        <v>2.3199999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="E54" t="s">
         <v>192</v>
@@ -13418,7 +13418,7 @@
         <v>18</v>
       </c>
       <c r="H54">
-        <v>41.76</v>
+        <v>43.199999999999996</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -13432,7 +13432,7 @@
         <v>194</v>
       </c>
       <c r="D55">
-        <v>4.6399999999999997</v>
+        <v>4.8</v>
       </c>
       <c r="E55" t="s">
         <v>192</v>
@@ -13458,7 +13458,7 @@
         <v>191</v>
       </c>
       <c r="D56">
-        <v>7.44</v>
+        <v>6.96</v>
       </c>
       <c r="E56" t="s">
         <v>192</v>
@@ -13470,7 +13470,7 @@
         <v>18</v>
       </c>
       <c r="H56">
-        <v>133.92000000000002</v>
+        <v>125.28</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -13484,7 +13484,7 @@
         <v>194</v>
       </c>
       <c r="D57">
-        <v>7.44</v>
+        <v>6.96</v>
       </c>
       <c r="E57" t="s">
         <v>192</v>
@@ -14108,7 +14108,7 @@
         <v>191</v>
       </c>
       <c r="D81">
-        <v>69.59</v>
+        <v>69.56</v>
       </c>
       <c r="E81" t="s">
         <v>192</v>
@@ -14120,7 +14120,7 @@
         <v>18</v>
       </c>
       <c r="H81">
-        <v>1252.6200000000001</v>
+        <v>1252.08</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -14134,7 +14134,7 @@
         <v>194</v>
       </c>
       <c r="D82">
-        <v>58.88</v>
+        <v>58.86</v>
       </c>
       <c r="E82" t="s">
         <v>192</v>
@@ -14160,7 +14160,7 @@
         <v>191</v>
       </c>
       <c r="D83">
-        <v>33.26</v>
+        <v>18.98</v>
       </c>
       <c r="E83" t="s">
         <v>192</v>
@@ -14172,7 +14172,7 @@
         <v>18</v>
       </c>
       <c r="H83">
-        <v>598.67999999999995</v>
+        <v>341.64</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -14186,7 +14186,7 @@
         <v>194</v>
       </c>
       <c r="D84">
-        <v>22.87</v>
+        <v>13.05</v>
       </c>
       <c r="E84" t="s">
         <v>192</v>
@@ -14212,7 +14212,7 @@
         <v>191</v>
       </c>
       <c r="D85">
-        <v>4.7</v>
+        <v>3.69</v>
       </c>
       <c r="E85" t="s">
         <v>192</v>
@@ -14224,7 +14224,7 @@
         <v>18</v>
       </c>
       <c r="H85">
-        <v>84.600000000000009</v>
+        <v>66.42</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -14238,7 +14238,7 @@
         <v>194</v>
       </c>
       <c r="D86">
-        <v>3.13</v>
+        <v>2.46</v>
       </c>
       <c r="E86" t="s">
         <v>192</v>
@@ -14264,7 +14264,7 @@
         <v>191</v>
       </c>
       <c r="D87">
-        <v>20.13</v>
+        <v>20.23</v>
       </c>
       <c r="E87" t="s">
         <v>192</v>
@@ -14276,7 +14276,7 @@
         <v>18</v>
       </c>
       <c r="H87">
-        <v>362.34</v>
+        <v>364.14</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -14290,7 +14290,7 @@
         <v>194</v>
       </c>
       <c r="D88">
-        <v>20.13</v>
+        <v>20.23</v>
       </c>
       <c r="E88" t="s">
         <v>192</v>
@@ -14524,7 +14524,7 @@
         <v>199</v>
       </c>
       <c r="D97">
-        <v>34.549999999999997</v>
+        <v>34.6</v>
       </c>
       <c r="E97" t="s">
         <v>192</v>
@@ -14536,7 +14536,7 @@
         <v>16</v>
       </c>
       <c r="H97">
-        <v>552.79999999999995</v>
+        <v>553.6</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -14550,7 +14550,7 @@
         <v>194</v>
       </c>
       <c r="D98">
-        <v>34.549999999999997</v>
+        <v>34.6</v>
       </c>
       <c r="E98" t="s">
         <v>192</v>
@@ -14628,7 +14628,7 @@
         <v>199</v>
       </c>
       <c r="D101">
-        <v>33.92</v>
+        <v>33.94</v>
       </c>
       <c r="E101" t="s">
         <v>192</v>
@@ -14640,7 +14640,7 @@
         <v>16</v>
       </c>
       <c r="H101">
-        <v>542.72</v>
+        <v>543.04</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -14654,7 +14654,7 @@
         <v>194</v>
       </c>
       <c r="D102">
-        <v>33.92</v>
+        <v>33.94</v>
       </c>
       <c r="E102" t="s">
         <v>192</v>
@@ -14680,7 +14680,7 @@
         <v>198</v>
       </c>
       <c r="D103">
-        <v>15.94</v>
+        <v>16</v>
       </c>
       <c r="E103" t="s">
         <v>192</v>
@@ -14692,7 +14692,7 @@
         <v>20</v>
       </c>
       <c r="H103">
-        <v>318.8</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -14706,7 +14706,7 @@
         <v>194</v>
       </c>
       <c r="D104">
-        <v>15.94</v>
+        <v>16</v>
       </c>
       <c r="E104" t="s">
         <v>192</v>
